--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject3.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject3.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.97804617677218997</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -317,7 +317,7 @@
         <v>0</v>
       </c>
       <c r="BL1" s="0">
-        <v>0</v>
+        <v>0.75034048365519812</v>
       </c>
       <c r="BM1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.85492307212591745</v>
       </c>
       <c r="BP1" s="0">
-        <v>0</v>
+        <v>0.91510867223933567</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.54020494588748391</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>0.52602821587432147</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -388,10 +388,10 @@
         <v>0</v>
       </c>
       <c r="S2" s="0">
-        <v>0</v>
+        <v>0.76700418758202815</v>
       </c>
       <c r="T2" s="0">
-        <v>0</v>
+        <v>0.65471252618155651</v>
       </c>
       <c r="U2" s="0">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="AI2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="0">
         <v>0</v>
@@ -529,21 +529,21 @@
         <v>0</v>
       </c>
       <c r="BN2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO2" s="0">
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0</v>
+        <v>0.56046721203668337</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.88052672820426048</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>0.86494175579651977</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.79023376086627339</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="AY3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="0">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="BC3" s="0">
-        <v>0</v>
+        <v>0.87585011679640845</v>
       </c>
       <c r="BD3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.71113969518011388</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.66450678766469662</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.77352971311139374</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="0">
-        <v>0</v>
+        <v>0.7320776567980456</v>
       </c>
       <c r="AC4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.9511598984549996</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.98085641493039422</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>0</v>
+        <v>0.58717668581363758</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>0</v>
+        <v>0.51833479955058404</v>
       </c>
       <c r="V5" s="0">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="AO5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="0">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="0">
         <v>0</v>
@@ -1167,28 +1167,28 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.73382980455146052</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
       </c>
       <c r="J6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0</v>
+        <v>0.50583069147751591</v>
       </c>
       <c r="L6" s="0">
         <v>0</v>
@@ -1281,10 +1281,10 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>0</v>
+        <v>0.62748266035253775</v>
       </c>
       <c r="AQ6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>0.93527419408008761</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0</v>
+        <v>0.56503605536613888</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.56935422274248748</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="0">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7" s="0">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="BG7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH7" s="0">
         <v>0</v>
@@ -1585,22 +1585,22 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>0.79376967968468615</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.53681697704263009</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="0">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="0">
-        <v>0</v>
+        <v>0.51044911612481481</v>
       </c>
       <c r="Q8" s="0">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="0">
-        <v>0</v>
+        <v>0.60747938555930914</v>
       </c>
       <c r="AG8" s="0">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="BL8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.57927850371317935</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.95401152011504442</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.64564548484695061</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="R9" s="0">
-        <v>0</v>
+        <v>0.60222752098115473</v>
       </c>
       <c r="S9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="0">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="AO9" s="0">
-        <v>0</v>
+        <v>0.99449580294329065</v>
       </c>
       <c r="AP9" s="0">
         <v>0</v>
@@ -1997,25 +1997,25 @@
         <v>0</v>
       </c>
       <c r="F10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.85996638733301478</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.82535162005938167</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="BF10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="0">
         <v>0</v>
@@ -2203,34 +2203,34 @@
         <v>0</v>
       </c>
       <c r="F11" s="0">
-        <v>0</v>
+        <v>0.862560269899039</v>
       </c>
       <c r="G11" s="0">
         <v>0</v>
       </c>
       <c r="H11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.84515130778483694</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.9809934137143097</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0</v>
+        <v>0.85099816552412721</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
       </c>
       <c r="O11" s="0">
-        <v>0</v>
+        <v>0.92473298387252889</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.80201074451209464</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>0.879926316351756</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.95426206835939187</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="0">
-        <v>0</v>
+        <v>0.50576495357527829</v>
       </c>
       <c r="X12" s="0">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="0">
-        <v>0</v>
+        <v>0.55628571460098153</v>
       </c>
       <c r="AM12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.65703038585342122</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.96024968294112623</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.65009249688975124</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.98561633416525019</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>0.70879074095065242</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.62533956165724902</v>
       </c>
       <c r="Q14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="0">
         <v>0</v>
@@ -3042,25 +3042,25 @@
         <v>0</v>
       </c>
       <c r="K15" s="0">
-        <v>0</v>
+        <v>0.75172987011142611</v>
       </c>
       <c r="L15" s="0">
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.94217000616184698</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>0.63733774258833065</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.61218977858080814</v>
       </c>
       <c r="Q15" s="0">
-        <v>0</v>
+        <v>0.97031073079799501</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="0">
-        <v>0</v>
+        <v>0.96834854770808465</v>
       </c>
       <c r="X15" s="0">
         <v>0</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="AR15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="0">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="0">
-        <v>0</v>
+        <v>0.51514355643695475</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.97077368072865844</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.82688411510357929</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.97565376087478239</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3463,22 +3463,22 @@
         <v>0</v>
       </c>
       <c r="N17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0</v>
+        <v>0.61034784496214012</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.83541093705432989</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.640841931781575</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.76321265995256704</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="0">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="0">
-        <v>0</v>
+        <v>0.93912943551649275</v>
       </c>
       <c r="J18" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.90799387477941096</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.99517141390823172</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.86856591663318139</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="0">
-        <v>0</v>
+        <v>0.99253098778207971</v>
       </c>
       <c r="C19" s="0">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="0">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.54953991780523381</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.65430727318722459</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>0</v>
+        <v>0.6352798094763441</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="0">
-        <v>0</v>
+        <v>0.53007704725441396</v>
       </c>
       <c r="AS19" s="0">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="AX19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="0">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="0">
-        <v>0</v>
+        <v>0.5902170424148484</v>
       </c>
       <c r="C20" s="0">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.90344653800042296</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.75412797235748763</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="0">
-        <v>0</v>
+        <v>0.9090899307307988</v>
       </c>
       <c r="F21" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0</v>
+        <v>0.51186806530952977</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.66754824073184027</v>
       </c>
       <c r="W21" s="0">
-        <v>0</v>
+        <v>0.66116583145247343</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="BO21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP21" s="0">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.75433605053535069</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.79335778196566764</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0</v>
+        <v>0.61323006060345464</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="0">
-        <v>0</v>
+        <v>0.87367197738277103</v>
       </c>
       <c r="AE22" s="0">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="0">
-        <v>0</v>
+        <v>0.77487531980408786</v>
       </c>
       <c r="M23" s="0">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="0">
-        <v>0</v>
+        <v>0.61717116982955322</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
@@ -4720,10 +4720,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0</v>
+        <v>0.73270226618308576</v>
       </c>
       <c r="V23" s="0">
-        <v>0</v>
+        <v>0.92954011992075003</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.53766150403257429</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="BL23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM23" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -4938,10 +4938,10 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.86759754964061342</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="0">
-        <v>0</v>
+        <v>0.94815173833801891</v>
       </c>
       <c r="AK24" s="0">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="AN24" s="0">
-        <v>0</v>
+        <v>0.73183225822096254</v>
       </c>
       <c r="AO24" s="0">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="0">
-        <v>0</v>
+        <v>0.81422191838271196</v>
       </c>
       <c r="AR24" s="0">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="BC24" s="0">
-        <v>0</v>
+        <v>0.87925690844552418</v>
       </c>
       <c r="BD24" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.5491500946186243</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.91062430374313075</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.86797774968833041</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.88567925521079416</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.52104680088450261</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.55378864147535933</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.52032837605484183</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.85209201747859098</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.81079982260070738</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.55103174115560383</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.8151553659167281</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>0</v>
+        <v>0.88377293103978705</v>
       </c>
       <c r="AR27" s="0">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="BF27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG27" s="0">
         <v>0</v>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="0">
-        <v>0</v>
+        <v>0.61088436636964394</v>
       </c>
       <c r="E28" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.95552790569773804</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.81208975706717579</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0.75331021378953578</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5974,16 +5974,16 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.81415838698624809</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0.62420167353617995</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="0">
-        <v>0</v>
+        <v>0.61767982146764155</v>
       </c>
       <c r="AM29" s="0">
         <v>0</v>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="AW29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX29" s="0">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="0">
-        <v>0</v>
+        <v>0.78770668076771189</v>
       </c>
       <c r="BA29" s="0">
         <v>0</v>
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="BP29" s="0">
-        <v>0</v>
+        <v>0.7791213686143712</v>
       </c>
     </row>
     <row r="30">
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="0">
-        <v>0</v>
+        <v>0.73833378540233763</v>
       </c>
       <c r="W30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.75003823330987085</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="AI30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="0">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="BG30" s="0">
-        <v>0</v>
+        <v>0.57896361044497846</v>
       </c>
       <c r="BH30" s="0">
         <v>0</v>
@@ -6303,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="BP30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="0">
         <v>0</v>
@@ -6395,16 +6395,16 @@
         <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.56805637448578294</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.97808271968892546</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="0">
-        <v>0</v>
+        <v>0.82740886281237913</v>
       </c>
       <c r="AO31" s="0">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="0">
-        <v>0</v>
+        <v>0.72494190745062259</v>
       </c>
       <c r="I32" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.75713320143381657</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.81623816461955578</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="AR32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS32" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.53586654088276209</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.58478655974350302</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.96423096691687593</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.77481177005154145</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.57922502479478033</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.69381739026935363</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.84023191233997574</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.71778020973508638</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7061,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="AT34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="0">
         <v>0</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="BI34" s="0">
-        <v>0</v>
+        <v>0.58796964244786498</v>
       </c>
       <c r="BJ34" s="0">
         <v>0</v>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="0">
         <v>0</v>
@@ -7219,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="AD35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="0">
         <v>0</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.82241966452964588</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.97906895901752611</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.58556052229778222</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="AR35" s="0">
-        <v>0</v>
+        <v>0.99379535953257681</v>
       </c>
       <c r="AS35" s="0">
         <v>0</v>
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="0">
-        <v>0</v>
+        <v>0.84291473823886998</v>
       </c>
       <c r="Y36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.57383770571025861</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.76124173568673237</v>
       </c>
       <c r="AL36" s="0">
-        <v>0</v>
+        <v>0.80946924068865034</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="BD36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE36" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.90888306912029093</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.73807244118351623</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.54136191703848702</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.93126595353230368</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="AP37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="0">
         <v>0</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="0">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="0">
-        <v>0</v>
+        <v>0.7980285076674869</v>
       </c>
       <c r="M38" s="0">
         <v>0</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="0">
-        <v>0</v>
+        <v>0.68759339061360669</v>
       </c>
       <c r="AD38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0</v>
+        <v>0.71130969273105926</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.99580223777855537</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.96964004541771287</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="BK38" s="0">
-        <v>0</v>
+        <v>0.94661957007123454</v>
       </c>
       <c r="BL38" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.93982963220494242</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.52455805672234956</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0.68195474890816676</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="AS39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="0">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="0">
-        <v>0</v>
+        <v>0.91682618515346925</v>
       </c>
       <c r="Y40" s="0">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="AE40" s="0">
-        <v>0</v>
+        <v>0.9279506040134502</v>
       </c>
       <c r="AF40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.70617033653224626</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.97296947017021596</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="AY40" s="0">
-        <v>0</v>
+        <v>0.61180049166992212</v>
       </c>
       <c r="AZ40" s="0">
         <v>0</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="0">
         <v>0</v>
@@ -8392,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="0">
-        <v>0</v>
+        <v>0.93262316917686827</v>
       </c>
       <c r="J41" s="0">
         <v>0</v>
@@ -8482,16 +8482,16 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0.93788650669777485</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.95843515573915661</v>
       </c>
       <c r="AQ41" s="0">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>0</v>
+        <v>0.8537389596014261</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8682,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.74915619273368828</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.61967479939753045</v>
       </c>
       <c r="AR42" s="0">
-        <v>0</v>
+        <v>0.52497365406129837</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8795,10 +8795,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="0">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="0">
-        <v>0</v>
+        <v>0.75882800212727819</v>
       </c>
       <c r="Y43" s="0">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="0">
-        <v>0</v>
+        <v>0.69774171910125227</v>
       </c>
       <c r="AB43" s="0">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.86264868485706914</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="AY43" s="0">
-        <v>0</v>
+        <v>0.92088116280281285</v>
       </c>
       <c r="AZ43" s="0">
         <v>0</v>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="0">
         <v>0</v>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="0">
         <v>0</v>
@@ -9040,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="0">
-        <v>0</v>
+        <v>0.9964696141621181</v>
       </c>
       <c r="T44" s="0">
         <v>0</v>
@@ -9079,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="AF44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="0">
         <v>0</v>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="AI44" s="0">
-        <v>0</v>
+        <v>0.79026731627263258</v>
       </c>
       <c r="AJ44" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0</v>
+        <v>0.71326763454330999</v>
       </c>
       <c r="AQ44" s="0">
         <v>0</v>
@@ -9118,10 +9118,10 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.9589937963867402</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9300,13 +9300,13 @@
         <v>0</v>
       </c>
       <c r="AK45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45" s="0">
         <v>0</v>
       </c>
       <c r="AM45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.74259726379364943</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.6822856395018746</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9384,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="BM45" s="0">
-        <v>0</v>
+        <v>0.69876880792197049</v>
       </c>
       <c r="BN45" s="0">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="BP45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="AH46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.78356670320729094</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.78638783442001914</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0</v>
+        <v>0.93068783117341491</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.80733903783339556</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="AY46" s="0">
-        <v>0</v>
+        <v>0.79598637780073078</v>
       </c>
       <c r="AZ46" s="0">
         <v>0</v>
@@ -9581,10 +9581,10 @@
         <v>0</v>
       </c>
       <c r="BJ46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL46" s="0">
         <v>0</v>
@@ -9622,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.87745757848988393</v>
       </c>
       <c r="AT47" s="0">
-        <v>0</v>
+        <v>0.74351670800057024</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0</v>
+        <v>0.98204331601003747</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.84795226867416651</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="BI47" s="0">
-        <v>0</v>
+        <v>0.52820724999399582</v>
       </c>
       <c r="BJ47" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.5401255226459567</v>
       </c>
       <c r="AU48" s="0">
-        <v>0</v>
+        <v>0.70234790782414869</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0</v>
+        <v>0.86507275018628982</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.52184456375074206</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="BE48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF48" s="0">
         <v>0</v>
@@ -10100,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD49" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.51461054722020805</v>
       </c>
       <c r="AV49" s="0">
-        <v>0</v>
+        <v>0.57222724950406523</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.68882380982338409</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.50787121719975392</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.58058275266987813</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.6298027276667979</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10390,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="BE50" s="0">
-        <v>0</v>
+        <v>0.56518090967219869</v>
       </c>
       <c r="BF50" s="0">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="BM50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN50" s="0">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="AN51" s="0">
-        <v>0</v>
+        <v>0.55615834586890744</v>
       </c>
       <c r="AO51" s="0">
         <v>0</v>
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="0">
-        <v>0</v>
+        <v>0.96694751238115217</v>
       </c>
       <c r="AR51" s="0">
         <v>0</v>
@@ -10563,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="AT51" s="0">
-        <v>0</v>
+        <v>0.92650888757815264</v>
       </c>
       <c r="AU51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="0">
-        <v>0</v>
+        <v>0.93619684057897268</v>
       </c>
       <c r="AD52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.50176629582730858</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.54175163119741754</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.73906177738324086</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.91291409252612921</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.66994357609804045</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11011,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="BF53" s="0">
-        <v>0</v>
+        <v>0.72199378631444233</v>
       </c>
       <c r="BG53" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.77158345463921785</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.50185822718511819</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.83230740669370529</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11258,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="0">
-        <v>0</v>
+        <v>0.89831004232798572</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="0">
-        <v>0</v>
+        <v>0.55764648595367339</v>
       </c>
       <c r="Y55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.78744830367136587</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.67369016524518266</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.95742433663168758</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11563,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.63138515450569099</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.8440752809917742</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.75168035527736987</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.96380409387388033</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11805,13 +11805,13 @@
         <v>0</v>
       </c>
       <c r="AV57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW57" s="0">
         <v>0</v>
       </c>
       <c r="AX57" s="0">
-        <v>0</v>
+        <v>0.83894362074360485</v>
       </c>
       <c r="AY57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.73098435112867666</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.52877468355643176</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.63861972624823027</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="0">
         <v>0</v>
@@ -11948,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="AA58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="0">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="BA58" s="0">
-        <v>0</v>
+        <v>0.99345372820961642</v>
       </c>
       <c r="BB58" s="0">
         <v>0</v>
@@ -12035,16 +12035,16 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.71492996580991841</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.73701473097783887</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.81942376241885317</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12094,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="0">
         <v>0</v>
@@ -12163,7 +12163,7 @@
         <v>0</v>
       </c>
       <c r="AD59" s="0">
-        <v>0</v>
+        <v>0.79319935397902364</v>
       </c>
       <c r="AE59" s="0">
         <v>0</v>
@@ -12244,25 +12244,25 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.51097846568107319</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.81262743014057648</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.96630204573285083</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.83322576723905251</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
       </c>
       <c r="BK59" s="0">
-        <v>0</v>
+        <v>0.74697400194295227</v>
       </c>
       <c r="BL59" s="0">
         <v>0</v>
@@ -12456,16 +12456,16 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.70400236492950841</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.68541656625642033</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.71311015620947049</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="AH61" s="0">
-        <v>0</v>
+        <v>0.83741169057015719</v>
       </c>
       <c r="AI61" s="0">
         <v>0</v>
@@ -12626,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="AU61" s="0">
-        <v>0</v>
+        <v>0.97645134990317728</v>
       </c>
       <c r="AV61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.86034665283739575</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.75584747209910619</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.78243795392675064</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12829,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="AT62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU62" s="0">
         <v>0</v>
@@ -12871,25 +12871,25 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.57177519134994947</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.69462771326394435</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.56386536433251311</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
       </c>
       <c r="BN62" s="0">
-        <v>0</v>
+        <v>0.53404582489816721</v>
       </c>
       <c r="BO62" s="0">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="0">
-        <v>0</v>
+        <v>0.60272187828716961</v>
       </c>
       <c r="AM63" s="0">
         <v>0</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU63" s="0">
         <v>0</v>
@@ -13074,22 +13074,22 @@
         <v>0</v>
       </c>
       <c r="BG63" s="0">
-        <v>0</v>
+        <v>0.78953188887732961</v>
       </c>
       <c r="BH63" s="0">
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.67138134975780894</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13106,7 +13106,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0</v>
+        <v>0.60413866388322579</v>
       </c>
       <c r="B64" s="0">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="0">
         <v>0</v>
@@ -13172,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="W64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.51070132696614789</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.60668616848117429</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="AS65" s="0">
-        <v>0</v>
+        <v>0.65898613483188329</v>
       </c>
       <c r="AT65" s="0">
         <v>0</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="AX65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY65" s="0">
         <v>0</v>
@@ -13501,16 +13501,16 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.60005744243942361</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0</v>
+        <v>0.70893215552997679</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13521,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" s="0">
         <v>0</v>
@@ -13701,30 +13701,30 @@
         <v>0</v>
       </c>
       <c r="BJ66" s="0">
-        <v>0</v>
+        <v>0.70027770675304457</v>
       </c>
       <c r="BK66" s="0">
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.74587599146469308</v>
       </c>
       <c r="BM66" s="0">
-        <v>0</v>
+        <v>0.78490445288680299</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.54780125043805317</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.75306104958037023</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.51970640964961357</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13784,7 +13784,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.56969699250905814</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.92446215865320347</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0</v>
+        <v>0.71043750788395243</v>
       </c>
       <c r="B68" s="0">
-        <v>0</v>
+        <v>0.95082890971610134</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14014,10 +14014,10 @@
         <v>0</v>
       </c>
       <c r="AC68" s="0">
-        <v>0</v>
+        <v>0.87920749520032904</v>
       </c>
       <c r="AD68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE68" s="0">
         <v>0</v>
@@ -14062,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.98210126667204767</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.82217581674875573</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject3.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject3.xlsx
@@ -340,10 +340,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.54020494588748391</v>
+        <v>0.86494175579651977</v>
       </c>
       <c r="D2" s="0">
-        <v>0.52602821587432147</v>
+        <v>0.71113969518011388</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -388,7 +388,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="0">
-        <v>0.76700418758202815</v>
+        <v>0.99253098778207971</v>
       </c>
       <c r="T2" s="0">
         <v>0.65471252618155651</v>
@@ -535,12 +535,12 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0.56046721203668337</v>
+        <v>0.95082890971610134</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.88052672820426048</v>
+        <v>0.97804617677218997</v>
       </c>
       <c r="B3" s="0">
         <v>0.86494175579651977</v>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>0.79023376086627339</v>
+        <v>0.9511598984549996</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="BC3" s="0">
-        <v>0.87585011679640845</v>
+        <v>0.89831004232798572</v>
       </c>
       <c r="BD3" s="0">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.66450678766469662</v>
+        <v>0.98085641493039422</v>
       </c>
       <c r="F4" s="0">
         <v>0.77352971311139374</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>0.58717668581363758</v>
+        <v>0.93527419408008761</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>0.51833479955058404</v>
+        <v>0.9090899307307988</v>
       </c>
       <c r="V5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.73382980455146052</v>
+        <v>0.77352971311139374</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.50583069147751591</v>
+        <v>0.862560269899039</v>
       </c>
       <c r="L6" s="0">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>0.62748266035253775</v>
+        <v>0.8537389596014261</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.56503605536613888</v>
+        <v>0.79376967968468615</v>
       </c>
       <c r="I7" s="0">
-        <v>0.56935422274248748</v>
+        <v>0.57927850371317935</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.53681697704263009</v>
+        <v>0.95401152011504442</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="0">
-        <v>0.51044911612481481</v>
+        <v>0.51514355643695475</v>
       </c>
       <c r="Q8" s="0">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="0">
-        <v>0.60747938555930914</v>
+        <v>0.72494190745062259</v>
       </c>
       <c r="AG8" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.64564548484695061</v>
+        <v>0.84515130778483694</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="0">
-        <v>0.60222752098115473</v>
+        <v>0.93912943551649275</v>
       </c>
       <c r="S9" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.85996638733301478</v>
+        <v>0.9809934137143097</v>
       </c>
       <c r="L10" s="0">
         <v>0.82535162005938167</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0.85099816552412721</v>
+        <v>0.879926316351756</v>
       </c>
       <c r="M11" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.80201074451209464</v>
+        <v>0.82535162005938167</v>
       </c>
       <c r="K12" s="0">
         <v>0.879926316351756</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="0">
-        <v>0.50576495357527829</v>
+        <v>0.77487531980408786</v>
       </c>
       <c r="X12" s="0">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="0">
-        <v>0.55628571460098153</v>
+        <v>0.7980285076674869</v>
       </c>
       <c r="AM12" s="0">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>0.65703038585342122</v>
+        <v>0.95426206835939187</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.96024968294112623</v>
+        <v>0.98561633416525019</v>
       </c>
       <c r="O13" s="0">
-        <v>0.65009249688975124</v>
+        <v>0.94217000616184698</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0.70879074095065242</v>
       </c>
       <c r="P14" s="0">
-        <v>0.62533956165724902</v>
+        <v>0.97077368072865844</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="0">
-        <v>0.75172987011142611</v>
+        <v>0.92473298387252889</v>
       </c>
       <c r="L15" s="0">
         <v>0</v>
@@ -3051,13 +3051,13 @@
         <v>0.94217000616184698</v>
       </c>
       <c r="N15" s="0">
-        <v>0.63733774258833065</v>
+        <v>0.70879074095065242</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0.61218977858080814</v>
+        <v>0.82688411510357929</v>
       </c>
       <c r="Q15" s="0">
         <v>0.97031073079799501</v>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.61034784496214012</v>
+        <v>0.97031073079799501</v>
       </c>
       <c r="P17" s="0">
-        <v>0.83541093705432989</v>
+        <v>0.97565376087478239</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.640841931781575</v>
+        <v>0.90799387477941096</v>
       </c>
       <c r="S17" s="0">
         <v>0.76321265995256704</v>
@@ -3687,7 +3687,7 @@
         <v>0.99517141390823172</v>
       </c>
       <c r="T18" s="0">
-        <v>0.86856591663318139</v>
+        <v>0.90344653800042296</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.54953991780523381</v>
+        <v>0.76321265995256704</v>
       </c>
       <c r="R19" s="0">
-        <v>0.65430727318722459</v>
+        <v>0.99517141390823172</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="0">
-        <v>0.53007704725441396</v>
+        <v>0.9964696141621181</v>
       </c>
       <c r="AS19" s="0">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="0">
-        <v>0.5902170424148484</v>
+        <v>0.65471252618155651</v>
       </c>
       <c r="C20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0.75412797235748763</v>
+        <v>0.75433605053535069</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.51186806530952977</v>
+        <v>0.6352798094763441</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.66754824073184027</v>
+        <v>0.79335778196566764</v>
       </c>
       <c r="W21" s="0">
-        <v>0.66116583145247343</v>
+        <v>0.73270226618308576</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.61323006060345464</v>
+        <v>0.92954011992075003</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="0">
-        <v>0.61717116982955322</v>
+        <v>0.96834854770808465</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.53766150403257429</v>
+        <v>0.5491500946186243</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.86759754964061342</v>
+        <v>0.91062430374313075</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="AN24" s="0">
-        <v>0.73183225822096254</v>
+        <v>0.91682618515346925</v>
       </c>
       <c r="AO24" s="0">
         <v>0</v>
@@ -5350,16 +5350,16 @@
         <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>0.52104680088450261</v>
+        <v>0.86797774968833041</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.55378864147535933</v>
+        <v>0.81079982260070738</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.52032837605484183</v>
+        <v>0.95552790569773804</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.85209201747859098</v>
+        <v>0.88567925521079416</v>
       </c>
       <c r="Z27" s="0">
         <v>0.81079982260070738</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.55103174115560383</v>
+        <v>0.81208975706717579</v>
       </c>
       <c r="AC27" s="0">
         <v>0.8151553659167281</v>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="0">
-        <v>0.61088436636964394</v>
+        <v>0.7320776567980456</v>
       </c>
       <c r="E28" s="0">
         <v>0</v>
@@ -5974,10 +5974,10 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.81415838698624809</v>
+        <v>0.8151553659167281</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.62420167353617995</v>
+        <v>0.75331021378953578</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="0">
-        <v>0.61767982146764155</v>
+        <v>0.68759339061360669</v>
       </c>
       <c r="AM29" s="0">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="0">
-        <v>0.78770668076771189</v>
+        <v>0.93619684057897268</v>
       </c>
       <c r="BA29" s="0">
         <v>0</v>
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="BP29" s="0">
-        <v>0.7791213686143712</v>
+        <v>0.87920749520032904</v>
       </c>
     </row>
     <row r="30">
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="0">
-        <v>0.73833378540233763</v>
+        <v>0.87367197738277103</v>
       </c>
       <c r="W30" s="0">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="BG30" s="0">
-        <v>0.57896361044497846</v>
+        <v>0.79319935397902364</v>
       </c>
       <c r="BH30" s="0">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.56805637448578294</v>
+        <v>0.75003823330987085</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="0">
-        <v>0.82740886281237913</v>
+        <v>0.9279506040134502</v>
       </c>
       <c r="AO31" s="0">
         <v>0</v>
@@ -6810,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.53586654088276209</v>
+        <v>0.97808271968892546</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.58478655974350302</v>
+        <v>0.75713320143381657</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0.96423096691687593</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.77481177005154145</v>
+        <v>0.82241966452964588</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -7019,16 +7019,16 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.57922502479478033</v>
+        <v>0.81623816461955578</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.69381739026935363</v>
+        <v>0.96423096691687593</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.84023191233997574</v>
+        <v>0.97906895901752611</v>
       </c>
       <c r="AJ34" s="0">
         <v>0.71778020973508638</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="BI34" s="0">
-        <v>0.58796964244786498</v>
+        <v>0.83741169057015719</v>
       </c>
       <c r="BJ34" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.58556052229778222</v>
+        <v>0.90888306912029093</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="0">
-        <v>0.84291473823886998</v>
+        <v>0.94815173833801891</v>
       </c>
       <c r="Y36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.57383770571025861</v>
+        <v>0.71778020973508638</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7649,16 +7649,16 @@
         <v>0.90888306912029093</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.73807244118351623</v>
+        <v>0.76124173568673237</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.54136191703848702</v>
+        <v>0.99580223777855537</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.93126595353230368</v>
+        <v>0.93982963220494242</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.71130969273105926</v>
+        <v>0.80946924068865034</v>
       </c>
       <c r="AK38" s="0">
         <v>0.99580223777855537</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.52455805672234956</v>
+        <v>0.97296947017021596</v>
       </c>
       <c r="AO39" s="0">
-        <v>0.68195474890816676</v>
+        <v>0.93788650669777485</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.70617033653224626</v>
+        <v>0.96964004541771287</v>
       </c>
       <c r="AM40" s="0">
         <v>0.97296947017021596</v>
@@ -8392,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="0">
-        <v>0.93262316917686827</v>
+        <v>0.99449580294329065</v>
       </c>
       <c r="J41" s="0">
         <v>0</v>
@@ -8694,16 +8694,16 @@
         <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.74915619273368828</v>
+        <v>0.95843515573915661</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.61967479939753045</v>
+        <v>0.86264868485706914</v>
       </c>
       <c r="AR42" s="0">
-        <v>0.52497365406129837</v>
+        <v>0.71326763454330999</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="0">
-        <v>0.75882800212727819</v>
+        <v>0.81422191838271196</v>
       </c>
       <c r="Y43" s="0">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="0">
-        <v>0.69774171910125227</v>
+        <v>0.88377293103978705</v>
       </c>
       <c r="AB43" s="0">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="AY43" s="0">
-        <v>0.92088116280281285</v>
+        <v>0.96694751238115217</v>
       </c>
       <c r="AZ43" s="0">
         <v>0</v>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="AI44" s="0">
-        <v>0.79026731627263258</v>
+        <v>0.99379535953257681</v>
       </c>
       <c r="AJ44" s="0">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.74259726379364943</v>
+        <v>0.78638783442001914</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.6822856395018746</v>
+        <v>0.87745757848988393</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.78356670320729094</v>
+        <v>0.9589937963867402</v>
       </c>
       <c r="AS46" s="0">
         <v>0.78638783442001914</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="AY46" s="0">
-        <v>0.79598637780073078</v>
+        <v>0.92650888757815264</v>
       </c>
       <c r="AZ46" s="0">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>0.87745757848988393</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.74351670800057024</v>
+        <v>0.93068783117341491</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="BI47" s="0">
-        <v>0.52820724999399582</v>
+        <v>0.97645134990317728</v>
       </c>
       <c r="BJ47" s="0">
         <v>0</v>
@@ -9945,10 +9945,10 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.5401255226459567</v>
+        <v>0.80733903783339556</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.70234790782414869</v>
+        <v>0.98204331601003747</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.51461054722020805</v>
+        <v>0.84795226867416651</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.57222724950406523</v>
+        <v>0.86507275018628982</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.50787121719975392</v>
+        <v>0.52184456375074206</v>
       </c>
       <c r="AW50" s="0">
-        <v>0.58058275266987813</v>
+        <v>0.68882380982338409</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10390,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="BE50" s="0">
-        <v>0.56518090967219869</v>
+        <v>0.83894362074360485</v>
       </c>
       <c r="BF50" s="0">
         <v>0</v>
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="AN51" s="0">
-        <v>0.55615834586890744</v>
+        <v>0.61180049166992212</v>
       </c>
       <c r="AO51" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.50176629582730858</v>
+        <v>0.6298027276667979</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.54175163119741754</v>
+        <v>0.73906177738324086</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>0.91291409252612921</v>
       </c>
       <c r="BC53" s="0">
-        <v>0.66994357609804045</v>
+        <v>0.78744830367136587</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11011,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="BF53" s="0">
-        <v>0.72199378631444233</v>
+        <v>0.99345372820961642</v>
       </c>
       <c r="BG53" s="0">
         <v>0</v>
@@ -11202,13 +11202,13 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.77158345463921785</v>
+        <v>0.91291409252612921</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.50185822718511819</v>
+        <v>0.67369016524518266</v>
       </c>
       <c r="BD54" s="0">
         <v>0.83230740669370529</v>
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="0">
-        <v>0.55764648595367339</v>
+        <v>0.87925690844552418</v>
       </c>
       <c r="Y55" s="0">
         <v>0</v>
@@ -11617,10 +11617,10 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.63138515450569099</v>
+        <v>0.83230740669370529</v>
       </c>
       <c r="BC56" s="0">
-        <v>0.8440752809917742</v>
+        <v>0.95742433663168758</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11829,13 +11829,13 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.73098435112867666</v>
+        <v>0.75168035527736987</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0.52877468355643176</v>
+        <v>0.73701473097783887</v>
       </c>
       <c r="BG57" s="0">
         <v>0.63861972624823027</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.71492996580991841</v>
+        <v>0.96380409387388033</v>
       </c>
       <c r="BE58" s="0">
         <v>0.73701473097783887</v>
@@ -12244,10 +12244,10 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.51097846568107319</v>
+        <v>0.63861972624823027</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.81262743014057648</v>
+        <v>0.81942376241885317</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12256,13 +12256,13 @@
         <v>0.96630204573285083</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.83322576723905251</v>
+        <v>0.86034665283739575</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
       </c>
       <c r="BK59" s="0">
-        <v>0.74697400194295227</v>
+        <v>0.78953188887732961</v>
       </c>
       <c r="BL59" s="0">
         <v>0</v>
@@ -12456,13 +12456,13 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.70400236492950841</v>
+        <v>0.96630204573285083</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.68541656625642033</v>
+        <v>0.75584747209910619</v>
       </c>
       <c r="BJ60" s="0">
         <v>0.71311015620947049</v>
@@ -12871,16 +12871,16 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.57177519134994947</v>
+        <v>0.71311015620947049</v>
       </c>
       <c r="BI62" s="0">
-        <v>0.69462771326394435</v>
+        <v>0.78243795392675064</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.56386536433251311</v>
+        <v>0.67138134975780894</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12889,7 +12889,7 @@
         <v>0</v>
       </c>
       <c r="BN62" s="0">
-        <v>0.53404582489816721</v>
+        <v>0.70027770675304457</v>
       </c>
       <c r="BO62" s="0">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="0">
-        <v>0.60272187828716961</v>
+        <v>0.94661957007123454</v>
       </c>
       <c r="AM63" s="0">
         <v>0</v>
@@ -13106,7 +13106,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.60413866388322579</v>
+        <v>0.75034048365519812</v>
       </c>
       <c r="B64" s="0">
         <v>0</v>
@@ -13298,10 +13298,10 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.51070132696614789</v>
+        <v>0.60005744243942361</v>
       </c>
       <c r="BN64" s="0">
-        <v>0.60668616848117429</v>
+        <v>0.74587599146469308</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="AS65" s="0">
-        <v>0.65898613483188329</v>
+        <v>0.69876880792197049</v>
       </c>
       <c r="AT65" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.70893215552997679</v>
+        <v>0.78490445288680299</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13716,15 +13716,15 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.54780125043805317</v>
+        <v>0.56969699250905814</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.75306104958037023</v>
+        <v>0.98210126667204767</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.51970640964961357</v>
+        <v>0.85492307212591745</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13930,7 +13930,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.71043750788395243</v>
+        <v>0.91510867223933567</v>
       </c>
       <c r="B68" s="0">
         <v>0.95082890971610134</v>
@@ -14128,7 +14128,7 @@
         <v>0.98210126667204767</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.82217581674875573</v>
+        <v>0.92446215865320347</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
